--- a/biology/Microbiologie/Brachyspiraceae/Brachyspiraceae.xlsx
+++ b/biology/Microbiologie/Brachyspiraceae/Brachyspiraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Brachyspiraceae sont une famille de bactéries appartenant à l'ordre des Spirochaetales. Certaines espèces sont pathogènes pour l’homme, provoquant des maladies dites « tréponématoses ».
-En 2014, les Brachyspiraceae ont été placée dans l'ordre des Brachyspirales[3].
+En 2014, les Brachyspiraceae ont été placée dans l'ordre des Brachyspirales.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (18 mars 2020)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 mars 2020) :
 genre Brachyspira Hovind-Hougen, Birch-Andersen, Henrik-Nielsen, Orholm, Pedersen, Teglbjaerg &amp; Thaysen, 1983
 genre Serpulina Stanton, 1992
-Selon Catalogue of Life                                   (18 mars 2020)[5], ITIS      (18 mars 2020)[1], NCBI  (18 mars 2020)[6] et World Register of Marine Species                               (18 mars 2020)[7] :
+Selon Catalogue of Life                                   (18 mars 2020), ITIS      (18 mars 2020), NCBI  (18 mars 2020) et World Register of Marine Species                               (18 mars 2020) :
 genre Brachyspira Hovind-Hougen, Birch-Andersen, Henrik-Nielsen, Orholm, Pedersen, Teglbjaerg &amp; Thaysen, 1983</t>
         </is>
       </c>
